--- a/src/main/webapp/TemplateUpload/Template_ChaoGia.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_ChaoGia.xlsx
@@ -2,32 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ADD8AB-E0C4-44E1-A0CD-CE933A991B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98331B8F-17F0-4283-BF31-BEC278334711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -225,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -309,6 +300,9 @@
   </si>
   <si>
     <t>Amount_in_PO</t>
+  </si>
+  <si>
+    <t>Đơn vị chính</t>
   </si>
 </sst>
 </file>
@@ -400,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,9 +419,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,11 +754,12 @@
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -801,31 +797,36 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G2" s="3"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G3" s="3"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="3"/>
     </row>
   </sheetData>

--- a/src/main/webapp/TemplateUpload/Template_ChaoGia.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_ChaoGia.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98331B8F-17F0-4283-BF31-BEC278334711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5396E368-8D26-4F3A-9C44-339BE5571817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Trang_tính1!$A$1:$U$620</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,21 +39,33 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Nguyễn Hồng Phong:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Bắt buộc phải có để xác định dòng nào là kết thúc import</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bắt buộc phải có để xác định dòng nào là kết thúc import</t>
         </r>
       </text>
     </comment>
@@ -148,25 +163,37 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Nguyễn Hồng Phong:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Ngày giao hàng</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ngày giao hàng</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -191,53 +218,97 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Nguyễn Hồng Phong:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Giá của khách (nếu có)
-Không có để trống</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Giá của khách (nếu có)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Không có để trống</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Nguyễn Hồng Phong:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-số lượng dải cỡ Infant. 
-Không có bỏ trống</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">số lượng dải cỡ Infant. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Không có bỏ trống</t>
         </r>
       </text>
     </comment>
@@ -246,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -304,12 +375,24 @@
   <si>
     <t>Đơn vị chính</t>
   </si>
+  <si>
+    <t>Mat Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +414,27 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -391,38 +495,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
+    <cellStyle name="Tiền tệ" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -734,102 +854,1978 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:U620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="4" customWidth="1"/>
+    <col min="17" max="18" width="8.85546875" style="4"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G2" s="3"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G4" s="3"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="G2" s="15"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="G3" s="15"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="G4" s="15"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S48" s="4"/>
+    </row>
+    <row r="49" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S53" s="4"/>
+    </row>
+    <row r="54" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S66" s="4"/>
+    </row>
+    <row r="67" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S70" s="4"/>
+    </row>
+    <row r="71" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S71" s="4"/>
+    </row>
+    <row r="72" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S72" s="4"/>
+    </row>
+    <row r="73" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S79" s="4"/>
+    </row>
+    <row r="80" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S80" s="4"/>
+    </row>
+    <row r="81" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S81" s="4"/>
+    </row>
+    <row r="82" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S82" s="4"/>
+    </row>
+    <row r="83" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S84" s="4"/>
+    </row>
+    <row r="85" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S85" s="4"/>
+    </row>
+    <row r="86" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S86" s="4"/>
+    </row>
+    <row r="87" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S87" s="4"/>
+    </row>
+    <row r="88" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S88" s="4"/>
+    </row>
+    <row r="89" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S89" s="4"/>
+    </row>
+    <row r="90" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S90" s="4"/>
+    </row>
+    <row r="91" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S91" s="4"/>
+    </row>
+    <row r="92" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S92" s="4"/>
+    </row>
+    <row r="93" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S93" s="4"/>
+    </row>
+    <row r="94" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S94" s="4"/>
+    </row>
+    <row r="95" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S95" s="4"/>
+    </row>
+    <row r="96" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S96" s="4"/>
+    </row>
+    <row r="97" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S97" s="4"/>
+    </row>
+    <row r="98" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S98" s="4"/>
+    </row>
+    <row r="99" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S99" s="4"/>
+    </row>
+    <row r="100" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S100" s="4"/>
+    </row>
+    <row r="101" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S101" s="4"/>
+    </row>
+    <row r="102" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S102" s="4"/>
+    </row>
+    <row r="103" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S103" s="4"/>
+    </row>
+    <row r="104" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S104" s="4"/>
+    </row>
+    <row r="105" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S105" s="4"/>
+    </row>
+    <row r="106" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S106" s="4"/>
+    </row>
+    <row r="107" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S107" s="4"/>
+    </row>
+    <row r="108" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S108" s="4"/>
+    </row>
+    <row r="109" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S109" s="4"/>
+    </row>
+    <row r="110" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S110" s="4"/>
+    </row>
+    <row r="111" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S111" s="4"/>
+    </row>
+    <row r="112" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S112" s="4"/>
+    </row>
+    <row r="113" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S113" s="4"/>
+    </row>
+    <row r="114" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S114" s="4"/>
+    </row>
+    <row r="115" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S115" s="4"/>
+    </row>
+    <row r="116" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S116" s="4"/>
+    </row>
+    <row r="117" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S117" s="4"/>
+    </row>
+    <row r="118" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S118" s="4"/>
+    </row>
+    <row r="119" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S119" s="4"/>
+    </row>
+    <row r="120" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S120" s="4"/>
+    </row>
+    <row r="121" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S121" s="4"/>
+    </row>
+    <row r="122" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S122" s="4"/>
+    </row>
+    <row r="123" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S123" s="4"/>
+    </row>
+    <row r="124" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S124" s="4"/>
+    </row>
+    <row r="125" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S125" s="4"/>
+    </row>
+    <row r="126" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S126" s="4"/>
+    </row>
+    <row r="127" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S127" s="4"/>
+    </row>
+    <row r="128" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S128" s="4"/>
+    </row>
+    <row r="129" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S129" s="4"/>
+    </row>
+    <row r="130" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S130" s="4"/>
+    </row>
+    <row r="131" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S131" s="4"/>
+    </row>
+    <row r="132" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S132" s="4"/>
+    </row>
+    <row r="133" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S133" s="4"/>
+    </row>
+    <row r="134" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S134" s="4"/>
+    </row>
+    <row r="135" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S135" s="4"/>
+    </row>
+    <row r="136" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S136" s="4"/>
+    </row>
+    <row r="137" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S137" s="4"/>
+    </row>
+    <row r="138" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S138" s="4"/>
+    </row>
+    <row r="139" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S139" s="4"/>
+    </row>
+    <row r="140" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S140" s="4"/>
+    </row>
+    <row r="141" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S141" s="4"/>
+    </row>
+    <row r="142" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S142" s="4"/>
+    </row>
+    <row r="143" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S143" s="4"/>
+    </row>
+    <row r="144" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S144" s="4"/>
+    </row>
+    <row r="145" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S145" s="4"/>
+    </row>
+    <row r="146" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S146" s="4"/>
+    </row>
+    <row r="147" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S147" s="4"/>
+    </row>
+    <row r="148" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S148" s="4"/>
+    </row>
+    <row r="149" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S149" s="4"/>
+    </row>
+    <row r="150" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S150" s="4"/>
+    </row>
+    <row r="151" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S151" s="4"/>
+    </row>
+    <row r="152" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S152" s="4"/>
+    </row>
+    <row r="153" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S153" s="4"/>
+    </row>
+    <row r="154" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S154" s="4"/>
+    </row>
+    <row r="155" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S155" s="4"/>
+    </row>
+    <row r="156" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S156" s="4"/>
+    </row>
+    <row r="157" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S157" s="4"/>
+    </row>
+    <row r="158" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S158" s="4"/>
+    </row>
+    <row r="159" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S159" s="4"/>
+    </row>
+    <row r="160" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S160" s="4"/>
+    </row>
+    <row r="161" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S161" s="4"/>
+    </row>
+    <row r="162" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S162" s="4"/>
+    </row>
+    <row r="163" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S163" s="4"/>
+    </row>
+    <row r="164" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S164" s="4"/>
+    </row>
+    <row r="165" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S165" s="4"/>
+    </row>
+    <row r="166" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S166" s="4"/>
+    </row>
+    <row r="167" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S167" s="4"/>
+    </row>
+    <row r="168" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S168" s="4"/>
+    </row>
+    <row r="169" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S169" s="4"/>
+    </row>
+    <row r="170" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S170" s="4"/>
+    </row>
+    <row r="171" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S171" s="4"/>
+    </row>
+    <row r="172" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S172" s="4"/>
+    </row>
+    <row r="173" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S173" s="4"/>
+    </row>
+    <row r="174" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S174" s="4"/>
+    </row>
+    <row r="175" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S175" s="4"/>
+    </row>
+    <row r="176" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S176" s="4"/>
+    </row>
+    <row r="177" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S177" s="4"/>
+    </row>
+    <row r="178" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S178" s="4"/>
+    </row>
+    <row r="179" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S179" s="4"/>
+    </row>
+    <row r="180" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S180" s="4"/>
+    </row>
+    <row r="181" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S181" s="4"/>
+    </row>
+    <row r="182" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S182" s="4"/>
+    </row>
+    <row r="183" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S183" s="4"/>
+    </row>
+    <row r="184" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S184" s="4"/>
+    </row>
+    <row r="185" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S185" s="4"/>
+    </row>
+    <row r="186" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S186" s="4"/>
+    </row>
+    <row r="187" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S187" s="4"/>
+    </row>
+    <row r="188" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S188" s="4"/>
+    </row>
+    <row r="189" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S189" s="4"/>
+    </row>
+    <row r="190" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S190" s="4"/>
+    </row>
+    <row r="191" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S191" s="4"/>
+    </row>
+    <row r="192" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S192" s="4"/>
+    </row>
+    <row r="193" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S193" s="4"/>
+    </row>
+    <row r="194" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S194" s="4"/>
+    </row>
+    <row r="195" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S195" s="4"/>
+    </row>
+    <row r="196" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S196" s="4"/>
+    </row>
+    <row r="197" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S197" s="4"/>
+    </row>
+    <row r="198" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S198" s="4"/>
+    </row>
+    <row r="199" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S199" s="4"/>
+    </row>
+    <row r="200" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S200" s="4"/>
+    </row>
+    <row r="201" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S201" s="4"/>
+    </row>
+    <row r="202" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S202" s="4"/>
+    </row>
+    <row r="203" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S203" s="4"/>
+    </row>
+    <row r="204" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S204" s="4"/>
+    </row>
+    <row r="205" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S205" s="4"/>
+    </row>
+    <row r="206" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S206" s="4"/>
+    </row>
+    <row r="207" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S207" s="4"/>
+    </row>
+    <row r="208" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S208" s="4"/>
+    </row>
+    <row r="209" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S209" s="4"/>
+    </row>
+    <row r="210" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S210" s="4"/>
+    </row>
+    <row r="211" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S211" s="4"/>
+    </row>
+    <row r="212" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S212" s="4"/>
+    </row>
+    <row r="213" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S213" s="4"/>
+    </row>
+    <row r="214" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S214" s="4"/>
+    </row>
+    <row r="215" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S215" s="4"/>
+    </row>
+    <row r="216" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S216" s="4"/>
+    </row>
+    <row r="217" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S217" s="4"/>
+    </row>
+    <row r="218" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S218" s="4"/>
+    </row>
+    <row r="219" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S219" s="4"/>
+    </row>
+    <row r="220" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S220" s="4"/>
+    </row>
+    <row r="221" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S221" s="4"/>
+    </row>
+    <row r="222" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S222" s="4"/>
+    </row>
+    <row r="223" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S223" s="4"/>
+    </row>
+    <row r="224" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S224" s="4"/>
+    </row>
+    <row r="225" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S225" s="4"/>
+    </row>
+    <row r="226" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S226" s="4"/>
+    </row>
+    <row r="227" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S227" s="4"/>
+    </row>
+    <row r="228" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S228" s="4"/>
+    </row>
+    <row r="229" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S229" s="4"/>
+    </row>
+    <row r="230" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S230" s="4"/>
+    </row>
+    <row r="231" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S231" s="4"/>
+    </row>
+    <row r="232" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S232" s="4"/>
+    </row>
+    <row r="233" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S233" s="4"/>
+    </row>
+    <row r="234" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S234" s="4"/>
+    </row>
+    <row r="235" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S235" s="4"/>
+    </row>
+    <row r="236" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S236" s="4"/>
+    </row>
+    <row r="237" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S237" s="4"/>
+    </row>
+    <row r="238" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S238" s="4"/>
+    </row>
+    <row r="239" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S239" s="4"/>
+    </row>
+    <row r="240" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S240" s="4"/>
+    </row>
+    <row r="241" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S241" s="4"/>
+    </row>
+    <row r="242" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S242" s="4"/>
+    </row>
+    <row r="243" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S243" s="4"/>
+    </row>
+    <row r="244" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S244" s="4"/>
+    </row>
+    <row r="245" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S245" s="4"/>
+    </row>
+    <row r="246" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S246" s="4"/>
+    </row>
+    <row r="247" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S247" s="4"/>
+    </row>
+    <row r="248" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S248" s="4"/>
+    </row>
+    <row r="249" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S249" s="4"/>
+    </row>
+    <row r="250" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S250" s="4"/>
+    </row>
+    <row r="251" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S251" s="4"/>
+    </row>
+    <row r="252" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S252" s="4"/>
+    </row>
+    <row r="253" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S253" s="4"/>
+    </row>
+    <row r="254" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S254" s="4"/>
+    </row>
+    <row r="255" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S255" s="4"/>
+    </row>
+    <row r="256" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S256" s="4"/>
+    </row>
+    <row r="257" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S257" s="4"/>
+    </row>
+    <row r="258" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S258" s="4"/>
+    </row>
+    <row r="259" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S259" s="4"/>
+    </row>
+    <row r="260" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S260" s="4"/>
+    </row>
+    <row r="261" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S261" s="4"/>
+    </row>
+    <row r="262" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S262" s="4"/>
+    </row>
+    <row r="263" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S263" s="4"/>
+    </row>
+    <row r="264" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S264" s="4"/>
+    </row>
+    <row r="265" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S265" s="4"/>
+    </row>
+    <row r="266" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S266" s="4"/>
+    </row>
+    <row r="267" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S267" s="4"/>
+    </row>
+    <row r="268" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S268" s="4"/>
+    </row>
+    <row r="269" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S269" s="4"/>
+    </row>
+    <row r="270" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S270" s="4"/>
+    </row>
+    <row r="271" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S271" s="4"/>
+    </row>
+    <row r="272" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S272" s="4"/>
+    </row>
+    <row r="273" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S273" s="4"/>
+    </row>
+    <row r="274" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S274" s="4"/>
+    </row>
+    <row r="275" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S275" s="4"/>
+    </row>
+    <row r="276" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S276" s="4"/>
+    </row>
+    <row r="277" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S277" s="4"/>
+    </row>
+    <row r="278" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S278" s="4"/>
+    </row>
+    <row r="279" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S279" s="4"/>
+    </row>
+    <row r="280" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S280" s="4"/>
+    </row>
+    <row r="281" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S281" s="4"/>
+    </row>
+    <row r="282" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S282" s="4"/>
+    </row>
+    <row r="283" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S283" s="4"/>
+    </row>
+    <row r="284" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S284" s="4"/>
+    </row>
+    <row r="285" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S285" s="4"/>
+    </row>
+    <row r="286" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S286" s="4"/>
+    </row>
+    <row r="287" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S287" s="4"/>
+    </row>
+    <row r="288" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S288" s="4"/>
+    </row>
+    <row r="289" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S289" s="4"/>
+    </row>
+    <row r="290" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S290" s="4"/>
+    </row>
+    <row r="291" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S291" s="4"/>
+    </row>
+    <row r="292" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S292" s="4"/>
+    </row>
+    <row r="293" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S293" s="4"/>
+    </row>
+    <row r="294" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S294" s="4"/>
+    </row>
+    <row r="295" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S295" s="4"/>
+    </row>
+    <row r="296" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S296" s="4"/>
+    </row>
+    <row r="297" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S297" s="4"/>
+    </row>
+    <row r="298" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S298" s="4"/>
+    </row>
+    <row r="299" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S299" s="4"/>
+    </row>
+    <row r="300" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S300" s="4"/>
+    </row>
+    <row r="301" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S301" s="4"/>
+    </row>
+    <row r="302" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S302" s="4"/>
+    </row>
+    <row r="303" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S303" s="4"/>
+    </row>
+    <row r="304" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S304" s="4"/>
+    </row>
+    <row r="305" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S305" s="4"/>
+    </row>
+    <row r="306" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S306" s="4"/>
+    </row>
+    <row r="307" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S307" s="4"/>
+    </row>
+    <row r="308" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S308" s="4"/>
+    </row>
+    <row r="309" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S309" s="4"/>
+    </row>
+    <row r="310" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S310" s="4"/>
+    </row>
+    <row r="311" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S311" s="4"/>
+    </row>
+    <row r="312" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S312" s="4"/>
+    </row>
+    <row r="313" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S313" s="4"/>
+    </row>
+    <row r="314" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S314" s="4"/>
+    </row>
+    <row r="315" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S315" s="4"/>
+    </row>
+    <row r="316" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S316" s="4"/>
+    </row>
+    <row r="317" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S317" s="4"/>
+    </row>
+    <row r="318" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S318" s="4"/>
+    </row>
+    <row r="319" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S319" s="4"/>
+    </row>
+    <row r="320" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S320" s="4"/>
+    </row>
+    <row r="321" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S321" s="4"/>
+    </row>
+    <row r="322" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S322" s="4"/>
+    </row>
+    <row r="323" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S323" s="4"/>
+    </row>
+    <row r="324" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S324" s="4"/>
+    </row>
+    <row r="325" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S325" s="4"/>
+    </row>
+    <row r="326" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S326" s="4"/>
+    </row>
+    <row r="327" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S327" s="4"/>
+    </row>
+    <row r="328" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S328" s="4"/>
+    </row>
+    <row r="329" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S329" s="4"/>
+    </row>
+    <row r="330" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S330" s="4"/>
+    </row>
+    <row r="331" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S331" s="4"/>
+    </row>
+    <row r="332" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S332" s="4"/>
+    </row>
+    <row r="333" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S333" s="4"/>
+    </row>
+    <row r="334" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S334" s="4"/>
+    </row>
+    <row r="335" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S335" s="4"/>
+    </row>
+    <row r="336" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S336" s="4"/>
+    </row>
+    <row r="337" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S337" s="4"/>
+    </row>
+    <row r="338" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S338" s="4"/>
+    </row>
+    <row r="339" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S339" s="4"/>
+    </row>
+    <row r="340" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S340" s="4"/>
+    </row>
+    <row r="341" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S341" s="4"/>
+    </row>
+    <row r="342" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S342" s="4"/>
+    </row>
+    <row r="343" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S343" s="4"/>
+    </row>
+    <row r="344" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S344" s="4"/>
+    </row>
+    <row r="345" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S345" s="4"/>
+    </row>
+    <row r="346" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S346" s="4"/>
+    </row>
+    <row r="347" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S347" s="4"/>
+    </row>
+    <row r="348" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S348" s="4"/>
+    </row>
+    <row r="349" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S349" s="4"/>
+    </row>
+    <row r="350" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S350" s="4"/>
+    </row>
+    <row r="351" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S351" s="4"/>
+    </row>
+    <row r="352" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S352" s="4"/>
+    </row>
+    <row r="353" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S353" s="4"/>
+    </row>
+    <row r="354" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S354" s="4"/>
+    </row>
+    <row r="355" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S355" s="4"/>
+    </row>
+    <row r="356" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S356" s="4"/>
+    </row>
+    <row r="357" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S357" s="4"/>
+    </row>
+    <row r="358" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S358" s="4"/>
+    </row>
+    <row r="359" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S359" s="4"/>
+    </row>
+    <row r="360" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S360" s="4"/>
+    </row>
+    <row r="361" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S361" s="4"/>
+    </row>
+    <row r="362" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S362" s="4"/>
+    </row>
+    <row r="363" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S363" s="4"/>
+    </row>
+    <row r="364" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S364" s="4"/>
+    </row>
+    <row r="365" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S365" s="4"/>
+    </row>
+    <row r="366" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S366" s="4"/>
+    </row>
+    <row r="367" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S367" s="4"/>
+    </row>
+    <row r="368" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S368" s="4"/>
+    </row>
+    <row r="369" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S369" s="4"/>
+    </row>
+    <row r="370" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S370" s="4"/>
+    </row>
+    <row r="371" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S371" s="4"/>
+    </row>
+    <row r="372" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S372" s="4"/>
+    </row>
+    <row r="373" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S373" s="4"/>
+    </row>
+    <row r="374" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S374" s="4"/>
+    </row>
+    <row r="375" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S375" s="4"/>
+    </row>
+    <row r="376" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S376" s="4"/>
+    </row>
+    <row r="377" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S377" s="4"/>
+    </row>
+    <row r="378" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S378" s="4"/>
+    </row>
+    <row r="379" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S379" s="4"/>
+    </row>
+    <row r="380" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S380" s="4"/>
+    </row>
+    <row r="381" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S381" s="4"/>
+    </row>
+    <row r="382" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S382" s="4"/>
+    </row>
+    <row r="383" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S383" s="4"/>
+    </row>
+    <row r="384" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S384" s="4"/>
+    </row>
+    <row r="385" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S385" s="4"/>
+    </row>
+    <row r="386" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S386" s="4"/>
+    </row>
+    <row r="387" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S387" s="4"/>
+    </row>
+    <row r="388" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S388" s="4"/>
+    </row>
+    <row r="389" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S389" s="4"/>
+    </row>
+    <row r="390" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S390" s="4"/>
+    </row>
+    <row r="391" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S391" s="4"/>
+    </row>
+    <row r="392" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S392" s="4"/>
+    </row>
+    <row r="393" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S393" s="4"/>
+    </row>
+    <row r="394" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S394" s="4"/>
+    </row>
+    <row r="395" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S395" s="4"/>
+    </row>
+    <row r="396" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S396" s="4"/>
+    </row>
+    <row r="397" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S397" s="4"/>
+    </row>
+    <row r="398" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S398" s="4"/>
+    </row>
+    <row r="399" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S399" s="4"/>
+    </row>
+    <row r="400" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S400" s="4"/>
+    </row>
+    <row r="401" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S401" s="4"/>
+    </row>
+    <row r="402" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S402" s="4"/>
+    </row>
+    <row r="403" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S403" s="4"/>
+    </row>
+    <row r="404" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S404" s="4"/>
+    </row>
+    <row r="405" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S405" s="4"/>
+    </row>
+    <row r="406" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S406" s="4"/>
+    </row>
+    <row r="407" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S407" s="4"/>
+    </row>
+    <row r="408" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S408" s="4"/>
+    </row>
+    <row r="409" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S409" s="4"/>
+    </row>
+    <row r="410" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S410" s="4"/>
+    </row>
+    <row r="411" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S411" s="4"/>
+    </row>
+    <row r="412" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S412" s="4"/>
+    </row>
+    <row r="413" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S413" s="4"/>
+    </row>
+    <row r="414" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S414" s="4"/>
+    </row>
+    <row r="415" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S415" s="4"/>
+    </row>
+    <row r="416" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S416" s="4"/>
+    </row>
+    <row r="417" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S417" s="4"/>
+    </row>
+    <row r="418" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S418" s="4"/>
+    </row>
+    <row r="419" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S419" s="4"/>
+    </row>
+    <row r="420" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S420" s="4"/>
+    </row>
+    <row r="421" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S421" s="4"/>
+    </row>
+    <row r="422" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S422" s="4"/>
+    </row>
+    <row r="423" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S423" s="4"/>
+    </row>
+    <row r="424" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S424" s="4"/>
+    </row>
+    <row r="425" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S425" s="4"/>
+    </row>
+    <row r="426" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S426" s="4"/>
+    </row>
+    <row r="427" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S427" s="4"/>
+    </row>
+    <row r="428" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S428" s="4"/>
+    </row>
+    <row r="429" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S429" s="4"/>
+    </row>
+    <row r="430" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S430" s="4"/>
+    </row>
+    <row r="431" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S431" s="4"/>
+    </row>
+    <row r="432" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S432" s="4"/>
+    </row>
+    <row r="433" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S433" s="4"/>
+    </row>
+    <row r="434" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S434" s="4"/>
+    </row>
+    <row r="435" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S435" s="4"/>
+    </row>
+    <row r="436" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S436" s="4"/>
+    </row>
+    <row r="437" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S437" s="4"/>
+    </row>
+    <row r="438" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S438" s="4"/>
+    </row>
+    <row r="439" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S439" s="4"/>
+    </row>
+    <row r="440" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S440" s="4"/>
+    </row>
+    <row r="441" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S441" s="4"/>
+    </row>
+    <row r="442" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S442" s="4"/>
+    </row>
+    <row r="443" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S443" s="4"/>
+    </row>
+    <row r="444" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S444" s="4"/>
+    </row>
+    <row r="445" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S445" s="4"/>
+    </row>
+    <row r="446" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S446" s="4"/>
+    </row>
+    <row r="447" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S447" s="4"/>
+    </row>
+    <row r="448" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S448" s="4"/>
+    </row>
+    <row r="449" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S449" s="4"/>
+    </row>
+    <row r="450" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S450" s="4"/>
+    </row>
+    <row r="451" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S451" s="4"/>
+    </row>
+    <row r="452" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S452" s="4"/>
+    </row>
+    <row r="453" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S453" s="4"/>
+    </row>
+    <row r="454" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S454" s="4"/>
+    </row>
+    <row r="455" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S455" s="4"/>
+    </row>
+    <row r="456" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S456" s="4"/>
+    </row>
+    <row r="457" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S457" s="4"/>
+    </row>
+    <row r="458" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S458" s="4"/>
+    </row>
+    <row r="459" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S459" s="4"/>
+    </row>
+    <row r="460" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S460" s="4"/>
+    </row>
+    <row r="461" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S461" s="4"/>
+    </row>
+    <row r="462" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S462" s="4"/>
+    </row>
+    <row r="463" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S463" s="4"/>
+    </row>
+    <row r="464" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S464" s="4"/>
+    </row>
+    <row r="465" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S465" s="4"/>
+    </row>
+    <row r="466" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S466" s="4"/>
+    </row>
+    <row r="467" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S467" s="4"/>
+    </row>
+    <row r="468" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S468" s="4"/>
+    </row>
+    <row r="469" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S469" s="4"/>
+    </row>
+    <row r="470" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S470" s="4"/>
+    </row>
+    <row r="471" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S471" s="4"/>
+    </row>
+    <row r="472" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S472" s="4"/>
+    </row>
+    <row r="473" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S473" s="4"/>
+    </row>
+    <row r="474" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S474" s="4"/>
+    </row>
+    <row r="475" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S475" s="4"/>
+    </row>
+    <row r="476" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S476" s="4"/>
+    </row>
+    <row r="477" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S477" s="4"/>
+    </row>
+    <row r="478" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S478" s="4"/>
+    </row>
+    <row r="479" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S479" s="4"/>
+    </row>
+    <row r="480" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S480" s="4"/>
+    </row>
+    <row r="481" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S481" s="4"/>
+    </row>
+    <row r="482" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S482" s="4"/>
+    </row>
+    <row r="483" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S483" s="4"/>
+    </row>
+    <row r="484" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S484" s="4"/>
+    </row>
+    <row r="485" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S485" s="4"/>
+    </row>
+    <row r="486" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S486" s="4"/>
+    </row>
+    <row r="487" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S487" s="4"/>
+    </row>
+    <row r="488" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S488" s="4"/>
+    </row>
+    <row r="489" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S489" s="4"/>
+    </row>
+    <row r="490" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S490" s="4"/>
+    </row>
+    <row r="491" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S491" s="4"/>
+    </row>
+    <row r="492" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S492" s="4"/>
+    </row>
+    <row r="493" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S493" s="4"/>
+    </row>
+    <row r="494" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S494" s="4"/>
+    </row>
+    <row r="495" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S495" s="4"/>
+    </row>
+    <row r="496" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S496" s="4"/>
+    </row>
+    <row r="497" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S497" s="4"/>
+    </row>
+    <row r="498" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S498" s="4"/>
+    </row>
+    <row r="499" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S499" s="4"/>
+    </row>
+    <row r="500" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S500" s="4"/>
+    </row>
+    <row r="501" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S501" s="4"/>
+    </row>
+    <row r="502" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S502" s="4"/>
+    </row>
+    <row r="503" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S503" s="4"/>
+    </row>
+    <row r="504" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S504" s="4"/>
+    </row>
+    <row r="505" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S505" s="4"/>
+    </row>
+    <row r="506" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S506" s="4"/>
+    </row>
+    <row r="507" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S507" s="4"/>
+    </row>
+    <row r="508" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S508" s="4"/>
+    </row>
+    <row r="509" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S509" s="4"/>
+    </row>
+    <row r="510" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S510" s="4"/>
+    </row>
+    <row r="511" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S511" s="4"/>
+    </row>
+    <row r="512" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S512" s="4"/>
+    </row>
+    <row r="513" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S513" s="4"/>
+    </row>
+    <row r="514" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S514" s="4"/>
+    </row>
+    <row r="515" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S515" s="4"/>
+    </row>
+    <row r="516" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S516" s="4"/>
+    </row>
+    <row r="517" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S517" s="4"/>
+    </row>
+    <row r="518" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S518" s="4"/>
+    </row>
+    <row r="519" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S519" s="4"/>
+    </row>
+    <row r="520" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S520" s="4"/>
+    </row>
+    <row r="521" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S521" s="4"/>
+    </row>
+    <row r="522" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S522" s="4"/>
+    </row>
+    <row r="523" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S523" s="4"/>
+    </row>
+    <row r="524" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S524" s="4"/>
+    </row>
+    <row r="525" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S525" s="4"/>
+    </row>
+    <row r="526" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S526" s="4"/>
+    </row>
+    <row r="527" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S527" s="4"/>
+    </row>
+    <row r="528" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S528" s="4"/>
+    </row>
+    <row r="529" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S529" s="4"/>
+    </row>
+    <row r="530" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S530" s="4"/>
+    </row>
+    <row r="531" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S531" s="4"/>
+    </row>
+    <row r="532" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S532" s="4"/>
+    </row>
+    <row r="533" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S533" s="4"/>
+    </row>
+    <row r="534" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S534" s="4"/>
+    </row>
+    <row r="535" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S535" s="4"/>
+    </row>
+    <row r="536" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S536" s="4"/>
+    </row>
+    <row r="537" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S537" s="4"/>
+    </row>
+    <row r="538" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S538" s="4"/>
+    </row>
+    <row r="539" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S539" s="4"/>
+    </row>
+    <row r="540" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S540" s="4"/>
+    </row>
+    <row r="541" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S541" s="4"/>
+    </row>
+    <row r="542" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S542" s="4"/>
+    </row>
+    <row r="543" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S543" s="4"/>
+    </row>
+    <row r="544" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S544" s="4"/>
+    </row>
+    <row r="545" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S545" s="4"/>
+    </row>
+    <row r="546" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S546" s="4"/>
+    </row>
+    <row r="547" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S547" s="4"/>
+    </row>
+    <row r="548" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S548" s="4"/>
+    </row>
+    <row r="549" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S549" s="4"/>
+    </row>
+    <row r="550" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S550" s="4"/>
+    </row>
+    <row r="551" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S551" s="4"/>
+    </row>
+    <row r="552" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S552" s="4"/>
+    </row>
+    <row r="553" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S553" s="4"/>
+    </row>
+    <row r="554" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S554" s="4"/>
+    </row>
+    <row r="555" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S555" s="4"/>
+    </row>
+    <row r="556" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S556" s="4"/>
+    </row>
+    <row r="557" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S557" s="4"/>
+    </row>
+    <row r="558" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S558" s="4"/>
+    </row>
+    <row r="559" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S559" s="4"/>
+    </row>
+    <row r="560" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S560" s="4"/>
+    </row>
+    <row r="561" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S561" s="4"/>
+    </row>
+    <row r="562" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S562" s="4"/>
+    </row>
+    <row r="563" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S563" s="4"/>
+    </row>
+    <row r="564" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S564" s="4"/>
+    </row>
+    <row r="565" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S565" s="4"/>
+    </row>
+    <row r="566" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S566" s="4"/>
+    </row>
+    <row r="567" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S567" s="4"/>
+    </row>
+    <row r="568" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S568" s="4"/>
+    </row>
+    <row r="569" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S569" s="4"/>
+    </row>
+    <row r="570" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S570" s="4"/>
+    </row>
+    <row r="571" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S571" s="4"/>
+    </row>
+    <row r="572" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S572" s="4"/>
+    </row>
+    <row r="573" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S573" s="4"/>
+    </row>
+    <row r="574" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S574" s="4"/>
+    </row>
+    <row r="575" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S575" s="4"/>
+    </row>
+    <row r="576" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S576" s="4"/>
+    </row>
+    <row r="577" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S577" s="4"/>
+    </row>
+    <row r="578" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S578" s="4"/>
+    </row>
+    <row r="579" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S579" s="4"/>
+    </row>
+    <row r="580" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S580" s="4"/>
+    </row>
+    <row r="581" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S581" s="4"/>
+    </row>
+    <row r="582" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S582" s="4"/>
+    </row>
+    <row r="583" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S583" s="4"/>
+    </row>
+    <row r="584" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S584" s="4"/>
+    </row>
+    <row r="585" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S585" s="4"/>
+    </row>
+    <row r="586" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S586" s="4"/>
+    </row>
+    <row r="587" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S587" s="4"/>
+    </row>
+    <row r="588" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S588" s="4"/>
+    </row>
+    <row r="589" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S589" s="4"/>
+    </row>
+    <row r="590" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S590" s="4"/>
+    </row>
+    <row r="591" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S591" s="4"/>
+    </row>
+    <row r="592" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S592" s="4"/>
+    </row>
+    <row r="593" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S593" s="4"/>
+    </row>
+    <row r="594" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S594" s="4"/>
+    </row>
+    <row r="595" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S595" s="4"/>
+    </row>
+    <row r="596" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S596" s="4"/>
+    </row>
+    <row r="597" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S597" s="4"/>
+    </row>
+    <row r="598" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S598" s="4"/>
+    </row>
+    <row r="599" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S599" s="4"/>
+    </row>
+    <row r="600" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S600" s="4"/>
+    </row>
+    <row r="601" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S601" s="4"/>
+    </row>
+    <row r="602" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S602" s="4"/>
+    </row>
+    <row r="603" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S603" s="4"/>
+    </row>
+    <row r="604" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S604" s="4"/>
+    </row>
+    <row r="605" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S605" s="4"/>
+    </row>
+    <row r="606" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S606" s="4"/>
+    </row>
+    <row r="607" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S607" s="4"/>
+    </row>
+    <row r="608" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S608" s="4"/>
+    </row>
+    <row r="609" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S609" s="4"/>
+    </row>
+    <row r="610" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S610" s="4"/>
+    </row>
+    <row r="611" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S611" s="4"/>
+    </row>
+    <row r="612" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S612" s="4"/>
+    </row>
+    <row r="613" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S613" s="4"/>
+    </row>
+    <row r="614" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S614" s="4"/>
+    </row>
+    <row r="615" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S615" s="4"/>
+    </row>
+    <row r="616" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S616" s="4"/>
+    </row>
+    <row r="617" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S617" s="4"/>
+    </row>
+    <row r="618" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S618" s="4"/>
+    </row>
+    <row r="619" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S619" s="4"/>
+    </row>
+    <row r="620" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S620" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U620" xr:uid="{464495A8-2665-5246-99FA-632AB2B60A4F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U620">
+      <sortCondition ref="A1:A620"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
